--- a/比特直播课/比特直播课笔记/笔记-C++/2024_11_18 2.类和对象(5).xlsx
+++ b/比特直播课/比特直播课笔记/笔记-C++/2024_11_18 2.类和对象(5).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,14 +15,46 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>这句话很重要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这三类变量必须要在初始化列表初始化，初始化列表设计的初衷也是为了解决这三类变量无法定义初始化的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以推荐，初始化列表的顺序和声明顺序写的一样，避免bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照声明的顺序初始化，本质是按照它在内存中的存放的先后顺序来初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -50,15 +82,578 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>665602</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>18184</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="295275"/>
+          <a:ext cx="9180952" cy="6923809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>618045</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133256</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9810750" y="3495675"/>
+          <a:ext cx="8638095" cy="752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>322790</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66585</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10363200" y="542925"/>
+          <a:ext cx="8476190" cy="723810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>349990</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>18105</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="7543800"/>
+          <a:ext cx="19476190" cy="7561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>93946</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>123196</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2009775" y="15668625"/>
+          <a:ext cx="10428571" cy="5028571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>409101</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>95083</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14449425" y="17621250"/>
+          <a:ext cx="3790476" cy="1333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>684718</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>171335</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13973175" y="23936325"/>
+          <a:ext cx="8657143" cy="923810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>399674</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>151890</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1504950" y="22307550"/>
+          <a:ext cx="3009524" cy="4076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>331659</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>151631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1695450" y="28460700"/>
+          <a:ext cx="13723809" cy="6152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>141839</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>18193</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4886325" y="21278850"/>
+          <a:ext cx="8285714" cy="6857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直接箭头连接符 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4629150" y="31375350"/>
+          <a:ext cx="3257550" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>199563</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>75759</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1990725" y="34613850"/>
+          <a:ext cx="3695238" cy="3523809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直接箭头连接符 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4676775" y="31527750"/>
+          <a:ext cx="3286125" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>255961</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>161087</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="图片 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1514475" y="39233475"/>
+          <a:ext cx="9714286" cy="6704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -100,7 +695,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -132,9 +727,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -166,6 +762,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -341,37 +938,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="P9:X172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A219" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T257" sqref="T257"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="9" spans="22:22" x14ac:dyDescent="0.15">
+      <c r="V9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="16:20" x14ac:dyDescent="0.15">
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="T20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="16:20" x14ac:dyDescent="0.15">
+      <c r="Q27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="22:22" x14ac:dyDescent="0.15">
+      <c r="V102" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="22:22" x14ac:dyDescent="0.15">
+      <c r="V149" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="24:24" x14ac:dyDescent="0.15">
+      <c r="X172" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>